--- a/generated_docs/WR_89734550_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/13/2025 to 07/13/25</t>
+          <t>07/07/2025 to 07/13/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89734550_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I126"/>
+  <dimension ref="A2:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16482.94</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>666.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="H25" s="16" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>7480.410000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SAA-DI-10-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,1/0,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2540,18 +2540,18 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-DI-10-C</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2642,18 +2642,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2778,18 +2778,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -2914,18 +2914,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3050,18 +3050,18 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3186,18 +3186,18 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3322,18 +3322,18 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3458,18 +3458,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3594,18 +3594,18 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3730,18 +3730,18 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -3866,18 +3866,18 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4002,18 +4002,18 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 45</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B125" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E125" s="12" t="inlineStr">
@@ -4138,23 +4138,57 @@
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="15" t="inlineStr">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 45</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H126" s="16" t="n">
-        <v>8241.470000000003</v>
+      <c r="H127" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A127:G127"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>

--- a/generated_docs/WR_89734550_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89734550_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I127"/>
+  <dimension ref="A2:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>16482.94</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P40</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>666.89</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +932,7 @@
         </is>
       </c>
       <c r="H25" s="16" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="28">
@@ -1019,7 +1015,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="31">
@@ -1053,7 +1049,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="33">
@@ -1121,7 +1117,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="34">
@@ -1155,7 +1151,7 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="35">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="36">
@@ -1223,7 +1219,7 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="37">
@@ -1257,7 +1253,7 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="38">
@@ -1291,7 +1287,7 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
@@ -1325,7 +1321,7 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="40">
@@ -1359,7 +1355,7 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="41">
@@ -1393,7 +1389,7 @@
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="42">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="43">
@@ -1461,7 +1457,7 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="44">
@@ -1495,7 +1491,7 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="45">
@@ -1529,7 +1525,7 @@
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="46">
@@ -1563,7 +1559,7 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="47">
@@ -1597,7 +1593,7 @@
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="48">
@@ -1631,7 +1627,7 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="49">
@@ -1665,7 +1661,7 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="50">
@@ -1699,7 +1695,7 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="51">
@@ -1733,7 +1729,7 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="52">
@@ -1767,7 +1763,7 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="53">
@@ -1801,7 +1797,7 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="54">
@@ -1835,7 +1831,7 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="55">
@@ -1869,7 +1865,7 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="56">
@@ -1903,7 +1899,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="57">
@@ -1937,7 +1933,7 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="58">
@@ -1971,7 +1967,7 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="59">
@@ -2005,7 +2001,7 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="60">
@@ -2039,7 +2035,7 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="61">
@@ -2073,7 +2069,7 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="62">
@@ -2107,7 +2103,7 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="63">
@@ -2141,7 +2137,7 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="64">
@@ -2175,7 +2171,7 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="65">
@@ -2209,7 +2205,7 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="66">
@@ -2243,7 +2239,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="67">
@@ -2277,7 +2273,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="68">
@@ -2311,7 +2307,7 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="69">
@@ -2345,7 +2341,7 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="70">
@@ -2379,7 +2375,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="71">
@@ -2413,7 +2409,7 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="72">
@@ -2447,7 +2443,7 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="73">
@@ -2457,7 +2453,7 @@
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>0</v>
+        <v>7480.410000000003</v>
       </c>
     </row>
     <row r="76">
@@ -2517,7 +2513,7 @@
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>SAA-DI-10-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2527,7 +2523,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2540,18 +2536,18 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>SAA-DI-10-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2561,7 +2557,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>SAA,Dead End I Bolt,1/0,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2574,7 +2570,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="80">
@@ -2585,7 +2581,7 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2595,7 +2591,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2608,7 +2604,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="81">
@@ -2619,7 +2615,7 @@
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2629,7 +2625,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2642,18 +2638,18 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2663,7 +2659,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2676,7 +2672,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="83">
@@ -2687,7 +2683,7 @@
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2697,7 +2693,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2710,7 +2706,7 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2717,7 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2731,7 +2727,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2744,7 +2740,7 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="85">
@@ -2755,7 +2751,7 @@
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -2765,7 +2761,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2778,18 +2774,18 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2799,7 +2795,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -2812,7 +2808,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="87">
@@ -2823,7 +2819,7 @@
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2833,7 +2829,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2846,7 +2842,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="88">
@@ -2857,7 +2853,7 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2867,7 +2863,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2880,7 +2876,7 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="89">
@@ -2891,7 +2887,7 @@
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -2901,7 +2897,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -2914,18 +2910,18 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -2935,7 +2931,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -2948,7 +2944,7 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="91">
@@ -2959,7 +2955,7 @@
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -2969,7 +2965,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2982,7 +2978,7 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="92">
@@ -2993,7 +2989,7 @@
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3003,7 +2999,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3016,7 +3012,7 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="93">
@@ -3027,7 +3023,7 @@
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3037,7 +3033,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3050,18 +3046,18 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3071,7 +3067,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3084,7 +3080,7 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="95">
@@ -3095,7 +3091,7 @@
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
@@ -3105,7 +3101,7 @@
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3118,7 +3114,7 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="96">
@@ -3129,7 +3125,7 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3139,7 +3135,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3152,7 +3148,7 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="97">
@@ -3163,7 +3159,7 @@
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
@@ -3173,7 +3169,7 @@
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3186,18 +3182,18 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
@@ -3207,7 +3203,7 @@
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3220,7 +3216,7 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="99">
@@ -3231,7 +3227,7 @@
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
@@ -3241,7 +3237,7 @@
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3254,7 +3250,7 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="100">
@@ -3265,7 +3261,7 @@
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3275,7 +3271,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3288,7 +3284,7 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="101">
@@ -3299,7 +3295,7 @@
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
@@ -3309,7 +3305,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3322,18 +3318,18 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3343,7 +3339,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3356,7 +3352,7 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="103">
@@ -3367,7 +3363,7 @@
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3377,7 +3373,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3390,7 +3386,7 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="104">
@@ -3401,7 +3397,7 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3411,7 +3407,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3424,7 +3420,7 @@
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="105">
@@ -3435,7 +3431,7 @@
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
@@ -3445,7 +3441,7 @@
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3458,18 +3454,18 @@
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3479,7 +3475,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3492,7 +3488,7 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="107">
@@ -3503,7 +3499,7 @@
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
@@ -3513,7 +3509,7 @@
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3526,7 +3522,7 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="108">
@@ -3537,7 +3533,7 @@
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3547,7 +3543,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3560,7 +3556,7 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="109">
@@ -3571,7 +3567,7 @@
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
@@ -3581,7 +3577,7 @@
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3594,18 +3590,18 @@
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3615,7 +3611,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3628,7 +3624,7 @@
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="111">
@@ -3639,7 +3635,7 @@
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3649,7 +3645,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3662,7 +3658,7 @@
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="112">
@@ -3673,7 +3669,7 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
@@ -3683,7 +3679,7 @@
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -3696,7 +3692,7 @@
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="113">
@@ -3707,7 +3703,7 @@
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -3717,7 +3713,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3730,18 +3726,18 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -3751,7 +3747,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3764,7 +3760,7 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="115">
@@ -3775,7 +3771,7 @@
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
@@ -3785,7 +3781,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -3798,7 +3794,7 @@
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="116">
@@ -3809,7 +3805,7 @@
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -3819,7 +3815,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -3832,7 +3828,7 @@
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="117">
@@ -3843,7 +3839,7 @@
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
@@ -3853,7 +3849,7 @@
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -3866,18 +3862,18 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 35</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -3887,7 +3883,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -3900,7 +3896,7 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="119">
@@ -3911,7 +3907,7 @@
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -3921,7 +3917,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -3934,7 +3930,7 @@
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="120">
@@ -3945,7 +3941,7 @@
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -3955,7 +3951,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -3968,7 +3964,7 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="121">
@@ -3979,7 +3975,7 @@
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -3989,7 +3985,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4002,18 +3998,18 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 35</t>
+          <t>Point 45</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4023,7 +4019,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4036,7 +4032,7 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="123">
@@ -4047,7 +4043,7 @@
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4057,7 +4053,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4070,7 +4066,7 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="124">
@@ -4081,7 +4077,7 @@
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
@@ -4091,7 +4087,7 @@
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4104,7 +4100,7 @@
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="125">
@@ -4115,7 +4111,7 @@
       </c>
       <c r="B125" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
@@ -4125,7 +4121,7 @@
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E125" s="12" t="inlineStr">
@@ -4138,57 +4134,23 @@
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Point 45</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C126" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D126" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E126" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F126" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="10" t="inlineStr"/>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="15" t="inlineStr">
+      <c r="A126" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H127" s="16" t="n">
-        <v>0</v>
+      <c r="H126" s="16" t="n">
+        <v>8241.470000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A126:G126"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
